--- a/input/FourthPower1.xlsx
+++ b/input/FourthPower1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,13 +460,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0533123457338238</v>
+        <v>0.09541473491200993</v>
       </c>
       <c r="C2" t="n">
-        <v>5.475096549899107e-08</v>
+        <v>5.542031828998138e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>5.328579902305306e-09</v>
+        <v>6.899374246642727e-09</v>
       </c>
     </row>
     <row r="3">
@@ -474,13 +474,13 @@
         <v>1.363636363636364</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1261869357664579</v>
+        <v>0.0629129249586846</v>
       </c>
       <c r="C3" t="n">
-        <v>1.75753984833196e-07</v>
+        <v>2.06879638728754e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>2.480601931235094e-08</v>
+        <v>2.684068627588077e-08</v>
       </c>
     </row>
     <row r="4">
@@ -488,13 +488,13 @@
         <v>1.727272727272727</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06714593340419697</v>
+        <v>0.1355369631985098</v>
       </c>
       <c r="C4" t="n">
-        <v>4.985800757990901e-07</v>
+        <v>5.420385614819802e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>4.877334410017631e-08</v>
+        <v>4.718708395286664e-08</v>
       </c>
     </row>
     <row r="5">
@@ -502,13 +502,13 @@
         <v>2.090909090909091</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06241450131046938</v>
+        <v>0.1426967817146367</v>
       </c>
       <c r="C5" t="n">
-        <v>1.088834265156122e-06</v>
+        <v>1.166672082080816e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>1.298603107653955e-07</v>
+        <v>1.432830778975021e-07</v>
       </c>
     </row>
     <row r="6">
@@ -516,13 +516,13 @@
         <v>2.454545454545455</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06962877165914014</v>
+        <v>0.1480364181349707</v>
       </c>
       <c r="C6" t="n">
-        <v>2.004637252823077e-06</v>
+        <v>2.084659349794333e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>1.061260614595152e-07</v>
+        <v>1.927824229906775e-07</v>
       </c>
     </row>
     <row r="7">
@@ -530,13 +530,13 @@
         <v>2.818181818181818</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05429482057965637</v>
+        <v>0.1490360290672124</v>
       </c>
       <c r="C7" t="n">
-        <v>3.751915785709986e-06</v>
+        <v>3.866901263860968e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>4.240531155757953e-07</v>
+        <v>4.519348725684993e-07</v>
       </c>
     </row>
     <row r="8">
@@ -544,13 +544,13 @@
         <v>3.181818181818182</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1342251464095376</v>
+        <v>0.1489651913653108</v>
       </c>
       <c r="C8" t="n">
-        <v>5.944582620367408e-06</v>
+        <v>6.173437684280043e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>4.29556264993896e-07</v>
+        <v>6.559406686853016e-07</v>
       </c>
     </row>
     <row r="9">
@@ -558,13 +558,13 @@
         <v>3.545454545454545</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08193814960316065</v>
+        <v>0.1002332623828828</v>
       </c>
       <c r="C9" t="n">
-        <v>8.918428842031195e-06</v>
+        <v>8.608163214611935e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>6.500867363093903e-07</v>
+        <v>6.138005831898286e-07</v>
       </c>
     </row>
     <row r="10">
@@ -572,13 +572,13 @@
         <v>3.909090909090909</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08136334088654065</v>
+        <v>0.08542122415966777</v>
       </c>
       <c r="C10" t="n">
-        <v>1.293700599297405e-05</v>
+        <v>1.35788108587008e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>1.727986953482298e-06</v>
+        <v>1.583333715730562e-06</v>
       </c>
     </row>
     <row r="11">
@@ -586,13 +586,13 @@
         <v>4.272727272727273</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05945383000408828</v>
+        <v>0.1057106568782109</v>
       </c>
       <c r="C11" t="n">
-        <v>1.872027023991048e-05</v>
+        <v>2.069694003600734e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>2.461069795658818e-06</v>
+        <v>1.530111086025295e-06</v>
       </c>
     </row>
     <row r="12">
@@ -600,13 +600,13 @@
         <v>4.636363636363637</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08063263565797311</v>
+        <v>0.122438029519025</v>
       </c>
       <c r="C12" t="n">
-        <v>2.60431157840825e-05</v>
+        <v>2.514263863981077e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>3.409895248952738e-06</v>
+        <v>1.733408530084016e-06</v>
       </c>
     </row>
     <row r="13">
@@ -614,13 +614,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08265594258463471</v>
+        <v>0.1056591056193066</v>
       </c>
       <c r="C13" t="n">
-        <v>3.870380061244699e-05</v>
+        <v>3.288472981545815e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>2.479582217221922e-06</v>
+        <v>3.262770660277787e-06</v>
       </c>
     </row>
   </sheetData>
